--- a/Unity/Assets/Config/Excel/TowerConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TowerConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B915D1DD-9065-4721-B0EC-BC11A7E18403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47095EE6-6DD8-4AD6-ABA9-5BE36F8A4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,10 +1347,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>2;-17,3,0;7101010;3,2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>1;4.77,0,0.8;720101;1</t>
   </si>
   <si>
@@ -1681,361 +1677,364 @@
     <t>1;4.77,0,0.8;720210;1</t>
   </si>
   <si>
-    <t>2;-17,3,0;7101020;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101030;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101040;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101050;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101060;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101070;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101080;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101090;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101100;1,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101110;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101120;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101130;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101140;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101150;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101160;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101170;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101180;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101190;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101200;1,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101210;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101220;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101230;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101240;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101250;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101260;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101270;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101280;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101290;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7101300;1,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102010;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102020;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102030;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102040;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102050;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102060;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102070;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102080;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102090;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102100;1,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102110;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102120;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102130;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102140;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102150;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102160;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102170;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102180;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102190;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102200;1,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102210;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102220;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102230;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102240;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102250;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102260;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102270;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102280;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102290;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102300;1,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102310;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102320;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102330;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102340;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102350;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102360;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102370;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102380;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102390;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7102400;1,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103010;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103020;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103030;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103040;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103050;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103060;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103070;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103080;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103090;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103100;1,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103110;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103120;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103130;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103140;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103150;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103160;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103170;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103180;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103190;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103200;1,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103210;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103220;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103230;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103240;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103250;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103260;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103270;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103280;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103290;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103300;1,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103310;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103320;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103330;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103340;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103350;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103360;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103370;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103380;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103390;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103400;1,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103410;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103420;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103430;3,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103440;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103450;4,2@1;0,0,0;800002;1</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103460;4,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103470;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103480;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103490;5,2</t>
-  </si>
-  <si>
-    <t>2;-17,3,0;7103500;1,2@1;0,0,0;800002;1</t>
+    <t>2;-17,3,0;711010;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711020;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711030;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711040;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711050;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711060;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711070;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711080;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711090;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711100;1,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711110;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711120;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711130;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711140;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711150;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711160;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711170;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711180;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711190;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711200;1,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711210;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711220;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711230;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711240;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711250;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711260;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711270;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711280;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711290;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;711300;1,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712010;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712020;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712030;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712040;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712050;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712060;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712070;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712080;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712090;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712100;1,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712110;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712120;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712130;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712140;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712150;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712160;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712170;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712180;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712190;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712200;1,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712210;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712220;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712230;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712240;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712250;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712260;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712270;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712280;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712290;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712300;1,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712310;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712320;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712330;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712340;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712350;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712360;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712370;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712380;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712390;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;712400;1,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713010;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713020;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713030;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713040;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713050;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713060;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713070;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713080;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713090;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713100;1,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713110;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713120;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713130;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713140;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713150;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713160;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713170;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713180;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713190;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713200;1,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713210;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713220;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713230;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713240;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713250;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713260;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713270;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713280;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713290;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713300;1,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713310;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713320;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713330;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713340;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713350;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713360;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713370;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713380;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713390;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713400;1,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713410;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713420;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713430;3,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713440;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713450;4,2@1;0,0,0;800002;1</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713460;4,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713470;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713480;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713490;5,2</t>
+  </si>
+  <si>
+    <t>2;-17,3,0;713500;1,2@1;0,0,0;800002;1</t>
   </si>
 </sst>
 </file>
@@ -3320,7 +3319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
       <selection activeCell="G258" sqref="G258"/>
     </sheetView>
   </sheetViews>
@@ -3429,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H6" s="10">
         <v>60</v>
@@ -3452,7 +3451,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H7" s="10">
         <v>60</v>
@@ -3475,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H8" s="10">
         <v>60</v>
@@ -3498,7 +3497,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H9" s="10">
         <v>60</v>
@@ -3521,7 +3520,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H10" s="10">
         <v>60</v>
@@ -3544,7 +3543,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H11" s="10">
         <v>60</v>
@@ -3567,7 +3566,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H12" s="10">
         <v>60</v>
@@ -3590,7 +3589,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H13" s="10">
         <v>60</v>
@@ -3613,7 +3612,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H14" s="10">
         <v>60</v>
@@ -3636,7 +3635,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H15" s="10">
         <v>60</v>
@@ -3659,7 +3658,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H16" s="10">
         <v>60</v>
@@ -3682,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H17" s="10">
         <v>60</v>
@@ -3705,7 +3704,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H18" s="10">
         <v>60</v>
@@ -3728,7 +3727,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H19" s="10">
         <v>60</v>
@@ -3751,7 +3750,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H20" s="10">
         <v>60</v>
@@ -3774,7 +3773,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H21" s="10">
         <v>60</v>
@@ -3797,7 +3796,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H22" s="10">
         <v>60</v>
@@ -3820,7 +3819,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H23" s="10">
         <v>60</v>
@@ -3843,7 +3842,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H24" s="10">
         <v>60</v>
@@ -3866,7 +3865,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H25" s="10">
         <v>60</v>
@@ -3889,7 +3888,7 @@
         <v>21</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H26" s="10">
         <v>60</v>
@@ -3912,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H27" s="10">
         <v>60</v>
@@ -3935,7 +3934,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H28" s="10">
         <v>60</v>
@@ -3958,7 +3957,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H29" s="10">
         <v>60</v>
@@ -3981,7 +3980,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H30" s="10">
         <v>60</v>
@@ -4004,7 +4003,7 @@
         <v>26</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H31" s="10">
         <v>60</v>
@@ -4027,7 +4026,7 @@
         <v>27</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H32" s="10">
         <v>60</v>
@@ -4050,7 +4049,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H33" s="10">
         <v>60</v>
@@ -4073,7 +4072,7 @@
         <v>29</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H34" s="10">
         <v>60</v>
@@ -4096,7 +4095,7 @@
         <v>30</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H35" s="10">
         <v>60</v>
@@ -4119,7 +4118,7 @@
         <v>31</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H36" s="10">
         <v>60</v>
@@ -4142,7 +4141,7 @@
         <v>32</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H37" s="10">
         <v>60</v>
@@ -4165,7 +4164,7 @@
         <v>33</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H38" s="10">
         <v>60</v>
@@ -4188,7 +4187,7 @@
         <v>34</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H39" s="10">
         <v>60</v>
@@ -4211,7 +4210,7 @@
         <v>35</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H40" s="10">
         <v>60</v>
@@ -4234,7 +4233,7 @@
         <v>36</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H41" s="10">
         <v>60</v>
@@ -4257,7 +4256,7 @@
         <v>37</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H42" s="10">
         <v>60</v>
@@ -4280,7 +4279,7 @@
         <v>38</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H43" s="10">
         <v>60</v>
@@ -4303,7 +4302,7 @@
         <v>39</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H44" s="10">
         <v>60</v>
@@ -4326,7 +4325,7 @@
         <v>40</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H45" s="10">
         <v>60</v>
@@ -4349,7 +4348,7 @@
         <v>41</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H46" s="10">
         <v>60</v>
@@ -4372,7 +4371,7 @@
         <v>42</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H47" s="10">
         <v>60</v>
@@ -4395,7 +4394,7 @@
         <v>43</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H48" s="10">
         <v>60</v>
@@ -4418,7 +4417,7 @@
         <v>44</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H49" s="10">
         <v>60</v>
@@ -4441,7 +4440,7 @@
         <v>45</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H50" s="10">
         <v>60</v>
@@ -4464,7 +4463,7 @@
         <v>46</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H51" s="10">
         <v>60</v>
@@ -4487,7 +4486,7 @@
         <v>47</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H52" s="10">
         <v>60</v>
@@ -4510,7 +4509,7 @@
         <v>48</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H53" s="10">
         <v>60</v>
@@ -4533,7 +4532,7 @@
         <v>49</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H54" s="10">
         <v>60</v>
@@ -4556,7 +4555,7 @@
         <v>50</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H55" s="10">
         <v>60</v>
@@ -4579,7 +4578,7 @@
         <v>51</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H56" s="10">
         <v>60</v>
@@ -4602,7 +4601,7 @@
         <v>52</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H57" s="10">
         <v>60</v>
@@ -4625,7 +4624,7 @@
         <v>53</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H58" s="10">
         <v>60</v>
@@ -4648,7 +4647,7 @@
         <v>54</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H59" s="10">
         <v>60</v>
@@ -4671,7 +4670,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H60" s="10">
         <v>60</v>
@@ -4694,7 +4693,7 @@
         <v>56</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H61" s="10">
         <v>60</v>
@@ -4717,7 +4716,7 @@
         <v>57</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H62" s="10">
         <v>60</v>
@@ -4740,7 +4739,7 @@
         <v>58</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H63" s="10">
         <v>60</v>
@@ -4763,7 +4762,7 @@
         <v>59</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H64" s="10">
         <v>60</v>
@@ -4786,7 +4785,7 @@
         <v>60</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H65" s="10">
         <v>60</v>
@@ -4809,7 +4808,7 @@
         <v>61</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H66" s="10">
         <v>60</v>
@@ -4832,7 +4831,7 @@
         <v>62</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H67" s="10">
         <v>60</v>
@@ -4855,7 +4854,7 @@
         <v>63</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H68" s="10">
         <v>60</v>
@@ -4878,7 +4877,7 @@
         <v>64</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H69" s="10">
         <v>60</v>
@@ -4901,7 +4900,7 @@
         <v>65</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H70" s="10">
         <v>60</v>
@@ -4924,7 +4923,7 @@
         <v>66</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H71" s="10">
         <v>60</v>
@@ -4947,7 +4946,7 @@
         <v>67</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H72" s="10">
         <v>60</v>
@@ -4970,7 +4969,7 @@
         <v>68</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H73" s="10">
         <v>60</v>
@@ -4993,7 +4992,7 @@
         <v>69</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H74" s="10">
         <v>60</v>
@@ -5016,7 +5015,7 @@
         <v>70</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H75" s="10">
         <v>60</v>
@@ -5039,7 +5038,7 @@
         <v>71</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H76" s="10">
         <v>60</v>
@@ -5062,7 +5061,7 @@
         <v>72</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H77" s="10">
         <v>60</v>
@@ -5085,7 +5084,7 @@
         <v>73</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H78" s="10">
         <v>60</v>
@@ -5108,7 +5107,7 @@
         <v>74</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H79" s="10">
         <v>60</v>
@@ -5131,7 +5130,7 @@
         <v>75</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H80" s="10">
         <v>60</v>
@@ -5154,7 +5153,7 @@
         <v>76</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H81" s="10">
         <v>60</v>
@@ -5177,7 +5176,7 @@
         <v>77</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H82" s="10">
         <v>60</v>
@@ -5200,7 +5199,7 @@
         <v>78</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H83" s="10">
         <v>60</v>
@@ -5223,7 +5222,7 @@
         <v>79</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H84" s="10">
         <v>60</v>
@@ -5246,7 +5245,7 @@
         <v>80</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H85" s="10">
         <v>60</v>
@@ -5269,7 +5268,7 @@
         <v>81</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H86" s="10">
         <v>60</v>
@@ -5292,7 +5291,7 @@
         <v>82</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H87" s="10">
         <v>60</v>
@@ -5315,7 +5314,7 @@
         <v>83</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H88" s="10">
         <v>60</v>
@@ -5338,7 +5337,7 @@
         <v>84</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H89" s="10">
         <v>60</v>
@@ -5361,7 +5360,7 @@
         <v>85</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H90" s="10">
         <v>60</v>
@@ -5384,7 +5383,7 @@
         <v>86</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H91" s="10">
         <v>60</v>
@@ -5407,7 +5406,7 @@
         <v>87</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H92" s="10">
         <v>60</v>
@@ -5430,7 +5429,7 @@
         <v>88</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H93" s="10">
         <v>60</v>
@@ -5453,7 +5452,7 @@
         <v>89</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H94" s="10">
         <v>60</v>
@@ -5476,7 +5475,7 @@
         <v>90</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H95" s="10">
         <v>60</v>
@@ -5499,7 +5498,7 @@
         <v>91</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H96" s="10">
         <v>60</v>
@@ -5522,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H97" s="10">
         <v>60</v>
@@ -5545,7 +5544,7 @@
         <v>93</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H98" s="10">
         <v>60</v>
@@ -5568,7 +5567,7 @@
         <v>94</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H99" s="10">
         <v>60</v>
@@ -5591,7 +5590,7 @@
         <v>95</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H100" s="10">
         <v>60</v>
@@ -5614,7 +5613,7 @@
         <v>96</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H101" s="10">
         <v>60</v>
@@ -5637,7 +5636,7 @@
         <v>97</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H102" s="10">
         <v>60</v>
@@ -5660,7 +5659,7 @@
         <v>98</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H103" s="10">
         <v>60</v>
@@ -5683,7 +5682,7 @@
         <v>99</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H104" s="10">
         <v>60</v>
@@ -5706,7 +5705,7 @@
         <v>100</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H105" s="10">
         <v>60</v>
@@ -5729,7 +5728,7 @@
         <v>101</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H106" s="10">
         <v>60</v>
@@ -5752,7 +5751,7 @@
         <v>102</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H107" s="10">
         <v>60</v>
@@ -5775,7 +5774,7 @@
         <v>103</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H108" s="10">
         <v>60</v>
@@ -5798,7 +5797,7 @@
         <v>104</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H109" s="10">
         <v>60</v>
@@ -5821,7 +5820,7 @@
         <v>105</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H110" s="10">
         <v>60</v>
@@ -5844,7 +5843,7 @@
         <v>106</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H111" s="10">
         <v>60</v>
@@ -5867,7 +5866,7 @@
         <v>107</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H112" s="10">
         <v>60</v>
@@ -5890,7 +5889,7 @@
         <v>108</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H113" s="10">
         <v>60</v>
@@ -5913,7 +5912,7 @@
         <v>109</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H114" s="10">
         <v>60</v>
@@ -5936,7 +5935,7 @@
         <v>110</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H115" s="10">
         <v>60</v>
@@ -6379,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="H136" s="10">
         <v>30</v>

--- a/Unity/Assets/Config/Excel/TowerConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TowerConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="TowerProto" sheetId="1" r:id="rId1"/>
@@ -945,67 +945,67 @@
     <t>1;900000@1000018;20@1010038;1</t>
   </si>
   <si>
-    <t>挑战之地1波</t>
+    <t>勇者之境1波</t>
   </si>
   <si>
     <t>1;225.31,29.14,-45;70001205;1</t>
   </si>
   <si>
-    <t>挑战之地2波</t>
-  </si>
-  <si>
-    <t>挑战之地3波</t>
-  </si>
-  <si>
-    <t>挑战之地4波</t>
-  </si>
-  <si>
-    <t>挑战之地5波</t>
-  </si>
-  <si>
-    <t>挑战之地6波</t>
-  </si>
-  <si>
-    <t>挑战之地7波</t>
-  </si>
-  <si>
-    <t>挑战之地8波</t>
-  </si>
-  <si>
-    <t>挑战之地9波</t>
-  </si>
-  <si>
-    <t>挑战之地10波</t>
-  </si>
-  <si>
-    <t>挑战之地11波</t>
-  </si>
-  <si>
-    <t>挑战之地12波</t>
-  </si>
-  <si>
-    <t>挑战之地13波</t>
-  </si>
-  <si>
-    <t>挑战之地14波</t>
-  </si>
-  <si>
-    <t>挑战之地15波</t>
-  </si>
-  <si>
-    <t>挑战之地16波</t>
-  </si>
-  <si>
-    <t>挑战之地17波</t>
-  </si>
-  <si>
-    <t>挑战之地18波</t>
-  </si>
-  <si>
-    <t>挑战之地19波</t>
-  </si>
-  <si>
-    <t>挑战之地20波</t>
+    <t>勇者之境2波</t>
+  </si>
+  <si>
+    <t>勇者之境3波</t>
+  </si>
+  <si>
+    <t>勇者之境4波</t>
+  </si>
+  <si>
+    <t>勇者之境5波</t>
+  </si>
+  <si>
+    <t>勇者之境6波</t>
+  </si>
+  <si>
+    <t>勇者之境7波</t>
+  </si>
+  <si>
+    <t>勇者之境8波</t>
+  </si>
+  <si>
+    <t>勇者之境9波</t>
+  </si>
+  <si>
+    <t>勇者之境10波</t>
+  </si>
+  <si>
+    <t>勇者之境11波</t>
+  </si>
+  <si>
+    <t>勇者之境12波</t>
+  </si>
+  <si>
+    <t>勇者之境13波</t>
+  </si>
+  <si>
+    <t>勇者之境14波</t>
+  </si>
+  <si>
+    <t>勇者之境15波</t>
+  </si>
+  <si>
+    <t>勇者之境16波</t>
+  </si>
+  <si>
+    <t>勇者之境17波</t>
+  </si>
+  <si>
+    <t>勇者之境18波</t>
+  </si>
+  <si>
+    <t>勇者之境19波</t>
+  </si>
+  <si>
+    <t>勇者之境20波</t>
   </si>
   <si>
     <t>2;-17,3,0;711010;3,2</t>
@@ -1068,61 +1068,61 @@
     <t>2;-17,3,0;711200;1,2@1;0,0,0;800002;1</t>
   </si>
   <si>
-    <t>挑战之地21波</t>
+    <t>勇者之境21波</t>
   </si>
   <si>
     <t>2;-17,3,0;711210;3,2</t>
   </si>
   <si>
-    <t>挑战之地22波</t>
+    <t>勇者之境22波</t>
   </si>
   <si>
     <t>2;-17,3,0;711220;3,2</t>
   </si>
   <si>
-    <t>挑战之地23波</t>
+    <t>勇者之境23波</t>
   </si>
   <si>
     <t>2;-17,3,0;711230;3,2</t>
   </si>
   <si>
-    <t>挑战之地24波</t>
+    <t>勇者之境24波</t>
   </si>
   <si>
     <t>2;-17,3,0;711240;4,2</t>
   </si>
   <si>
-    <t>挑战之地25波</t>
+    <t>勇者之境25波</t>
   </si>
   <si>
     <t>2;-17,3,0;711250;4,2@1;0,0,0;800002;1</t>
   </si>
   <si>
-    <t>挑战之地26波</t>
+    <t>勇者之境26波</t>
   </si>
   <si>
     <t>2;-17,3,0;711260;4,2</t>
   </si>
   <si>
-    <t>挑战之地27波</t>
+    <t>勇者之境27波</t>
   </si>
   <si>
     <t>2;-17,3,0;711270;5,2</t>
   </si>
   <si>
-    <t>挑战之地28波</t>
+    <t>勇者之境28波</t>
   </si>
   <si>
     <t>2;-17,3,0;711280;5,2</t>
   </si>
   <si>
-    <t>挑战之地29波</t>
+    <t>勇者之境29波</t>
   </si>
   <si>
     <t>2;-17,3,0;711290;5,2</t>
   </si>
   <si>
-    <t>挑战之地30波</t>
+    <t>勇者之境30波</t>
   </si>
   <si>
     <t>2;-17,3,0;711300;1,2@1;0,0,0;800002;1</t>
@@ -1218,61 +1218,61 @@
     <t>2;-17,3,0;712300;1,2@1;0,0,0;800002;1</t>
   </si>
   <si>
-    <t>挑战之地31波</t>
+    <t>勇者之境31波</t>
   </si>
   <si>
     <t>2;-17,3,0;712310;3,2</t>
   </si>
   <si>
-    <t>挑战之地32波</t>
+    <t>勇者之境32波</t>
   </si>
   <si>
     <t>2;-17,3,0;712320;3,2</t>
   </si>
   <si>
-    <t>挑战之地33波</t>
+    <t>勇者之境33波</t>
   </si>
   <si>
     <t>2;-17,3,0;712330;3,2</t>
   </si>
   <si>
-    <t>挑战之地34波</t>
+    <t>勇者之境34波</t>
   </si>
   <si>
     <t>2;-17,3,0;712340;4,2</t>
   </si>
   <si>
-    <t>挑战之地35波</t>
+    <t>勇者之境35波</t>
   </si>
   <si>
     <t>2;-17,3,0;712350;4,2@1;0,0,0;800002;1</t>
   </si>
   <si>
-    <t>挑战之地36波</t>
+    <t>勇者之境36波</t>
   </si>
   <si>
     <t>2;-17,3,0;712360;4,2</t>
   </si>
   <si>
-    <t>挑战之地37波</t>
+    <t>勇者之境37波</t>
   </si>
   <si>
     <t>2;-17,3,0;712370;5,2</t>
   </si>
   <si>
-    <t>挑战之地38波</t>
+    <t>勇者之境38波</t>
   </si>
   <si>
     <t>2;-17,3,0;712380;5,2</t>
   </si>
   <si>
-    <t>挑战之地39波</t>
+    <t>勇者之境39波</t>
   </si>
   <si>
     <t>2;-17,3,0;712390;5,2</t>
   </si>
   <si>
-    <t>挑战之地40波</t>
+    <t>勇者之境40波</t>
   </si>
   <si>
     <t>2;-17,3,0;712400;1,2@1;0,0,0;800002;1</t>
@@ -1398,61 +1398,61 @@
     <t>2;-17,3,0;713400;1,2@1;0,0,0;800002;1</t>
   </si>
   <si>
-    <t>挑战之地41波</t>
+    <t>勇者之境41波</t>
   </si>
   <si>
     <t>2;-17,3,0;713410;3,2</t>
   </si>
   <si>
-    <t>挑战之地42波</t>
+    <t>勇者之境42波</t>
   </si>
   <si>
     <t>2;-17,3,0;713420;3,2</t>
   </si>
   <si>
-    <t>挑战之地43波</t>
+    <t>勇者之境43波</t>
   </si>
   <si>
     <t>2;-17,3,0;713430;3,2</t>
   </si>
   <si>
-    <t>挑战之地44波</t>
+    <t>勇者之境44波</t>
   </si>
   <si>
     <t>2;-17,3,0;713440;4,2</t>
   </si>
   <si>
-    <t>挑战之地45波</t>
+    <t>勇者之境45波</t>
   </si>
   <si>
     <t>2;-17,3,0;713450;4,2@1;0,0,0;800002;1</t>
   </si>
   <si>
-    <t>挑战之地46波</t>
+    <t>勇者之境46波</t>
   </si>
   <si>
     <t>2;-17,3,0;713460;4,2</t>
   </si>
   <si>
-    <t>挑战之地47波</t>
+    <t>勇者之境47波</t>
   </si>
   <si>
     <t>2;-17,3,0;713470;5,2</t>
   </si>
   <si>
-    <t>挑战之地48波</t>
+    <t>勇者之境48波</t>
   </si>
   <si>
     <t>2;-17,3,0;713480;5,2</t>
   </si>
   <si>
-    <t>挑战之地49波</t>
+    <t>勇者之境49波</t>
   </si>
   <si>
     <t>2;-17,3,0;713490;5,2</t>
   </si>
   <si>
-    <t>挑战之地50波</t>
+    <t>勇者之境50波</t>
   </si>
   <si>
     <t>2;-17,3,0;713500;1,2@1;0,0,0;800002;1</t>
@@ -2044,7 +2044,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2232,13 +2232,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2332,7 +2325,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="82">
+  <fills count="66">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2653,42 +2646,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2756,66 +2713,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3179,58 +3076,76 @@
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3251,94 +3166,76 @@
     <xf numFmtId="0" fontId="25" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="81" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="81" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3555,7 +3452,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{43875057-7A52-4757-A527-8E2DE1FB4C4C}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{DC632C6E-8DCE-4F1D-97CB-10FA7B68495D}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
@@ -3898,8 +3795,8 @@
   <sheetPr/>
   <dimension ref="A1:O865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="G665" sqref="G665"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D118" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
